--- a/Data_Dict.xlsx
+++ b/Data_Dict.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexaware Techenical\Asset Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0EB49F-67FA-4A60-BDC3-4E4AAA6A2947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FB429-8967-4B30-AB2E-2D7EFDF57CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="SQL" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="344">
   <si>
     <t>Column Name</t>
   </si>
@@ -617,13 +619,463 @@
   </si>
   <si>
     <t>dao</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>==== Digital Asset Management System ====</t>
+  </si>
+  <si>
+    <t>1. Login</t>
+  </si>
+  <si>
+    <t>2. Exit</t>
+  </si>
+  <si>
+    <t>==== Admin Menu ====</t>
+  </si>
+  <si>
+    <t>1. Asset Management</t>
+  </si>
+  <si>
+    <t>2. Employee Management</t>
+  </si>
+  <si>
+    <t>3. Reports</t>
+  </si>
+  <si>
+    <t>4. Logout</t>
+  </si>
+  <si>
+    <t>==== Asset Management ====</t>
+  </si>
+  <si>
+    <t>1. Add Asset</t>
+  </si>
+  <si>
+    <t>2. Update Asset</t>
+  </si>
+  <si>
+    <t>3. Delete Asset</t>
+  </si>
+  <si>
+    <t>4. View All Assets</t>
+  </si>
+  <si>
+    <t>5. Allocate Asset</t>
+  </si>
+  <si>
+    <t>6. Deallocate Asset</t>
+  </si>
+  <si>
+    <t>7. Perform Maintenance</t>
+  </si>
+  <si>
+    <t>8. Back to Admin Menu</t>
+  </si>
+  <si>
+    <t>==== Add New Asset ====</t>
+  </si>
+  <si>
+    <t>Enter owner ID (leave empty if none):</t>
+  </si>
+  <si>
+    <t>Enter asset name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter asset type (e.g., laptop, vehicle, equipment): </t>
+  </si>
+  <si>
+    <t>Enter serial number:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter purchase date (YYYY-MM-DD): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter current location: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter status (in_use, decommissioned, under_maintenance): </t>
+  </si>
+  <si>
+    <t>==== Update Asset ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID to update: 20</t>
+  </si>
+  <si>
+    <t>Current Asset Details:</t>
+  </si>
+  <si>
+    <t>Name: printer</t>
+  </si>
+  <si>
+    <t>Type: equipment</t>
+  </si>
+  <si>
+    <t>Serial Number: DFS123dsf</t>
+  </si>
+  <si>
+    <t>Purchase Date: 2023-05-03</t>
+  </si>
+  <si>
+    <t>Location: Avinashi</t>
+  </si>
+  <si>
+    <t>Status: in_use</t>
+  </si>
+  <si>
+    <t>Owner ID: None</t>
+  </si>
+  <si>
+    <t>Enter new details (leave blank to keep current value):</t>
+  </si>
+  <si>
+    <t>Name [printer]: printer-epson</t>
+  </si>
+  <si>
+    <t>Type [equipment]:</t>
+  </si>
+  <si>
+    <t>Serial Number [DFS123dsf]:</t>
+  </si>
+  <si>
+    <t>Purchase Date [2023-05-03]:</t>
+  </si>
+  <si>
+    <t>Location [Avinashi]:</t>
+  </si>
+  <si>
+    <t>Status [in_use]:</t>
+  </si>
+  <si>
+    <t>Owner ID [None]:</t>
+  </si>
+  <si>
+    <t>Asset updated successfully!</t>
+  </si>
+  <si>
+    <t>==== Delete Asset ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID to delete: 6</t>
+  </si>
+  <si>
+    <t>Asset deleted successfully!</t>
+  </si>
+  <si>
+    <t>==== All Assets ====</t>
+  </si>
+  <si>
+    <t>ID         Name                 Type            Serial          Purchase Date   Location        Status               Owner ID</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>5          MacBook Pro 16"      Laptop          MPB20230001     2023-01-15      Office          in_use               7</t>
+  </si>
+  <si>
+    <t>7          Dell XPS 15          Laptop          DXP20220001     2022-11-10      Warehouse       decommissioned       None</t>
+  </si>
+  <si>
+    <t>11         Updated Laptop       laptop          TEST123         2023-01-01      Warehouse       in_use               None</t>
+  </si>
+  <si>
+    <t>18         macbook pro          Laptop          daw64ads        2025-06-24      chennai         in_use               7</t>
+  </si>
+  <si>
+    <t>20         printer-epson        equipment       DFS123dsf       2023-05-03      Avinashi        in_use               None</t>
+  </si>
+  <si>
+    <t>==== Allocate Asset ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID to allocate: 18</t>
+  </si>
+  <si>
+    <t>Enter employee ID to allocate to: 9</t>
+  </si>
+  <si>
+    <t>Enter allocation date (YYYY-MM-DD): 2025-09-04</t>
+  </si>
+  <si>
+    <t>Asset allocated successfully!</t>
+  </si>
+  <si>
+    <t>==== Deallocate Asset ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID to deallocate: 18</t>
+  </si>
+  <si>
+    <t>Enter employee ID to deallocate from: 9</t>
+  </si>
+  <si>
+    <t>Enter return date (YYYY-MM-DD): 2025-09-06</t>
+  </si>
+  <si>
+    <t>Asset deallocated successfully!</t>
+  </si>
+  <si>
+    <t>==== Perform Maintenance ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID for maintenance: 20</t>
+  </si>
+  <si>
+    <t>Enter maintenance date (YYYY-MM-DD): 2025-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter maintenance description: no ink          </t>
+  </si>
+  <si>
+    <t>Enter maintenance cost: 2000</t>
+  </si>
+  <si>
+    <t>Maintenance recorded successfully!</t>
+  </si>
+  <si>
+    <t>==== Employee Management ====</t>
+  </si>
+  <si>
+    <t>1. Add Employee</t>
+  </si>
+  <si>
+    <t>2. Update Employee</t>
+  </si>
+  <si>
+    <t>3. View All Employees</t>
+  </si>
+  <si>
+    <t>4. Back to Admin Menu</t>
+  </si>
+  <si>
+    <t>==== Add New Employee ====</t>
+  </si>
+  <si>
+    <t>Enter employee name: Sam</t>
+  </si>
+  <si>
+    <t>Enter department: Frontend-Dev</t>
+  </si>
+  <si>
+    <t>Enter email: sam@company.com</t>
+  </si>
+  <si>
+    <t>Enter password: sam123</t>
+  </si>
+  <si>
+    <t>Is this an admin account? (y/n): n</t>
+  </si>
+  <si>
+    <t>Employee added successfully!</t>
+  </si>
+  <si>
+    <t>==== Update Employee ====</t>
+  </si>
+  <si>
+    <t>Enter employee ID to update: 10</t>
+  </si>
+  <si>
+    <t>Current Employee Details:</t>
+  </si>
+  <si>
+    <t>Name: Sam</t>
+  </si>
+  <si>
+    <t>Department: Frontend-Dev</t>
+  </si>
+  <si>
+    <t>Email: sam@company.com</t>
+  </si>
+  <si>
+    <t>Admin: No</t>
+  </si>
+  <si>
+    <t>Name [Sam]:</t>
+  </si>
+  <si>
+    <t>Department [Frontend-Dev]:</t>
+  </si>
+  <si>
+    <t>Email [sam@company.com]: sam123@company.com</t>
+  </si>
+  <si>
+    <t>New password (leave blank to keep current): sam12345</t>
+  </si>
+  <si>
+    <t>Employee updated successfully!</t>
+  </si>
+  <si>
+    <t>==== All Employees ====</t>
+  </si>
+  <si>
+    <t>ID         Name                 Department           Email                     Admin</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>1          Admin                IT                   admin@company.com         Yes</t>
+  </si>
+  <si>
+    <t>7          John Doe             Sales                john.doe@company.com      No</t>
+  </si>
+  <si>
+    <t>8          Jane Smith           Marketing            jane.smith@company.com    No</t>
+  </si>
+  <si>
+    <t>9          Ram                  Marketing            ram@example.com           No</t>
+  </si>
+  <si>
+    <t>10         Sam                  Frontend-Dev         sam123@company.com        No</t>
+  </si>
+  <si>
+    <t>==== Reports ====</t>
+  </si>
+  <si>
+    <t>1. Asset Status Report</t>
+  </si>
+  <si>
+    <t>2. Maintenance History</t>
+  </si>
+  <si>
+    <t>3. Allocation History</t>
+  </si>
+  <si>
+    <t>==== Asset Status Report ====</t>
+  </si>
+  <si>
+    <t>ID         Name                 Type            Status               Owner                Department</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>5          MacBook Pro 16"      Laptop          in_use               John Doe             Sales</t>
+  </si>
+  <si>
+    <t>11         Updated Laptop       laptop          in_use               None                 None</t>
+  </si>
+  <si>
+    <t>18         macbook pro          Laptop          in_use               None                 None</t>
+  </si>
+  <si>
+    <t>7          Dell XPS 15          Laptop          decommissioned       None                 None</t>
+  </si>
+  <si>
+    <t>20         printer-epson        equipment       under_maintenance    None                 None</t>
+  </si>
+  <si>
+    <t>==== Maintenance History ====</t>
+  </si>
+  <si>
+    <t>ID         Asset                Date            Description                    Cost</t>
+  </si>
+  <si>
+    <t>2          printer-epson        2025-06-06      no ink                         2000.00</t>
+  </si>
+  <si>
+    <t>1          MacBook Pro 16"      2023-05-15      Battery replacement            89.99</t>
+  </si>
+  <si>
+    <t>==== Allocation History ====</t>
+  </si>
+  <si>
+    <t>ID         Asset                Employee             Allocation Date Return Date</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>3          macbook pro          Ram                  2025-09-04      2025-09-06</t>
+  </si>
+  <si>
+    <t>1          MacBook Pro 16"      John Doe             2023-04-01      Active</t>
+  </si>
+  <si>
+    <t>==== User Menu ====</t>
+  </si>
+  <si>
+    <t>1. View My Assets</t>
+  </si>
+  <si>
+    <t>2. Request Asset</t>
+  </si>
+  <si>
+    <t>3. Return Asset</t>
+  </si>
+  <si>
+    <t>4. Request Maintenance</t>
+  </si>
+  <si>
+    <t>5. Update My Profile</t>
+  </si>
+  <si>
+    <t>6. Logout</t>
+  </si>
+  <si>
+    <t>==== My Assets ====</t>
+  </si>
+  <si>
+    <t>You don't have any allocated assets</t>
+  </si>
+  <si>
+    <t>==== Request Asset ====</t>
+  </si>
+  <si>
+    <t>18         macbook pro          Laptop          daw64ads        2025-06-24      chennai         in_use               None</t>
+  </si>
+  <si>
+    <t>20         printer-epson        equipment       DFS123dsf       2023-05-03      Avinashi        under_maintenance    None</t>
+  </si>
+  <si>
+    <t>Enter asset ID to request: 5</t>
+  </si>
+  <si>
+    <t>Enter start date (YYYY-MM-DD): 2025-09-08</t>
+  </si>
+  <si>
+    <t>Enter end date (YYYY-MM-DD): 2025-09-10</t>
+  </si>
+  <si>
+    <t>Error: name 'datetime' is not defined</t>
+  </si>
+  <si>
+    <t>==== Request Maintenance ====</t>
+  </si>
+  <si>
+    <t>Enter asset ID for maintenance: 5</t>
+  </si>
+  <si>
+    <t>Enter maintenance description: battery</t>
+  </si>
+  <si>
+    <t>==== Update My Profile ====</t>
+  </si>
+  <si>
+    <t>Current Profile Details:</t>
+  </si>
+  <si>
+    <t>Email: sam123@company.com</t>
+  </si>
+  <si>
+    <t>Email [sam123@company.com]: sam@company.com</t>
+  </si>
+  <si>
+    <t>New password (leave blank to keep current): sam123</t>
+  </si>
+  <si>
+    <t>Profile updated successfully!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +1148,14 @@
       <color theme="1"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -806,7 +1266,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,61 +1277,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,16 +1310,67 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1118,8 +1581,8 @@
       <xdr:rowOff>145340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>172795</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>477595</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>154515</xdr:rowOff>
     </xdr:to>
@@ -1527,33 +1990,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F57C2A-5FAA-48DC-99DE-D8D8EBAC0AA7}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:7" ht="23.4">
+      <c r="D1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.8">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +2045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +2065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +2079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1639,11 +2103,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1657,13 +2121,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.8">
+      <c r="A12" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1691,7 +2155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +2169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +2183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +2211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1761,7 +2225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="43.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1775,7 +2239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1789,12 +2253,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="20.399999999999999" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickTop="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="28.8">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1822,7 +2286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +2300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +2314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1864,7 +2328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1878,13 +2342,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" ht="19.8">
+      <c r="A31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="28.8">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +2376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="28.8">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -1926,7 +2390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="28.8">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +2404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -1954,7 +2418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -1968,13 +2432,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" ht="19.8">
+      <c r="A39" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28.8">
       <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
@@ -2002,7 +2466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="28.8">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2016,7 +2480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="28.8">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -2044,7 +2508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -2058,7 +2522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -2072,7 +2536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="28.8">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -2114,1506 +2578,1504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B641F0C0-388F-4348-B655-40D0C9389822}">
   <dimension ref="A1:AD109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28" style="30" customWidth="1"/>
-    <col min="2" max="2" width="33" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="27.5546875" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="28" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="20.399999999999999" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:14" ht="25.2">
+      <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="25" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="25" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="25" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="25" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="12"/>
+      <c r="G15" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="G16" s="26" t="s">
+      <c r="E16" s="12"/>
+      <c r="G16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="31" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="25" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="25" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="25" t="s">
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="25" t="s">
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="26" t="s">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="26" t="s">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="26" t="s">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="31" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="31" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="32"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="32"/>
-    </row>
-    <row r="97" spans="1:30" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A97" s="37" t="s">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="16"/>
+    </row>
+    <row r="97" spans="1:30" ht="37.799999999999997">
+      <c r="A97" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="25" t="s">
+      <c r="C97" s="38"/>
+      <c r="D97" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G97" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="I97" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J97" s="25" t="s">
+      <c r="J97" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K97" s="25" t="s">
+      <c r="K97" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="L97" s="25" t="s">
+      <c r="L97" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M97" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="N97" s="25" t="s">
+      <c r="N97" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="O97" s="26" t="s">
+      <c r="O97" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="P97" s="26" t="s">
+      <c r="P97" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
-      <c r="U97" s="28"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-      <c r="AC97" s="28"/>
-      <c r="AD97" s="28"/>
-    </row>
-    <row r="98" spans="1:30" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37" t="s">
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+    </row>
+    <row r="98" spans="1:30" ht="50.4">
+      <c r="A98" s="38"/>
+      <c r="B98" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="25" t="s">
+      <c r="C98" s="38"/>
+      <c r="D98" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E98" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G98" s="25" t="s">
+      <c r="G98" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I98" s="25" t="s">
+      <c r="I98" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J98" s="25" t="s">
+      <c r="J98" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K98" s="25" t="s">
+      <c r="K98" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L98" s="25" t="s">
+      <c r="L98" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="M98" s="25" t="s">
+      <c r="M98" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="N98" s="25" t="s">
+      <c r="N98" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="O98" s="25" t="s">
+      <c r="O98" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P98" s="25" t="s">
+      <c r="P98" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q98" s="25" t="s">
+      <c r="Q98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="R98" s="31" t="s">
+      <c r="R98" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S98" s="31" t="s">
+      <c r="S98" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="28"/>
-      <c r="U98" s="28"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
-    </row>
-    <row r="99" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="37" t="s">
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+    </row>
+    <row r="99" spans="1:30" ht="25.2">
+      <c r="A99" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="25" t="s">
+      <c r="C99" s="38"/>
+      <c r="D99" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E99" s="25" t="s">
+      <c r="E99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="25" t="s">
+      <c r="F99" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H99" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I99" s="25" t="s">
+      <c r="I99" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J99" s="25" t="s">
+      <c r="J99" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K99" s="26" t="s">
+      <c r="K99" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="L99" s="26" t="s">
+      <c r="L99" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="M99" s="26" t="s">
+      <c r="M99" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="N99" s="26" t="s">
+      <c r="N99" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="O99" s="26" t="s">
+      <c r="O99" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="P99" s="26" t="s">
+      <c r="P99" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="Q99" s="25" t="s">
+      <c r="Q99" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R99" s="25" t="s">
+      <c r="R99" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="S99" s="25" t="s">
+      <c r="S99" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="T99" s="25" t="s">
+      <c r="T99" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="U99" s="28"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
-    </row>
-    <row r="100" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37" t="s">
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+    </row>
+    <row r="100" spans="1:30" ht="25.2">
+      <c r="A100" s="38"/>
+      <c r="B100" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="25" t="s">
+      <c r="C100" s="38"/>
+      <c r="D100" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E100" s="25" t="s">
+      <c r="E100" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H100" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I100" s="26" t="s">
+      <c r="I100" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J100" s="26" t="s">
+      <c r="J100" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K100" s="25" t="s">
+      <c r="K100" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L100" s="25" t="s">
+      <c r="L100" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M100" s="25" t="s">
+      <c r="M100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="N100" s="25" t="s">
+      <c r="N100" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O100" s="25" t="s">
+      <c r="O100" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="P100" s="25" t="s">
+      <c r="P100" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-      <c r="T100" s="28"/>
-      <c r="U100" s="28"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
-    </row>
-    <row r="101" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37" t="s">
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12"/>
+    </row>
+    <row r="101" spans="1:30" ht="25.2">
+      <c r="A101" s="38"/>
+      <c r="B101" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="25" t="s">
+      <c r="C101" s="38"/>
+      <c r="D101" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="25" t="s">
+      <c r="E101" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F101" s="25" t="s">
+      <c r="F101" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H101" s="25" t="s">
+      <c r="H101" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I101" s="25" t="s">
+      <c r="I101" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J101" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K101" s="25" t="s">
+      <c r="K101" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L101" s="25" t="s">
+      <c r="L101" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="28"/>
-      <c r="S101" s="28"/>
-      <c r="T101" s="28"/>
-      <c r="U101" s="28"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-      <c r="AC101" s="28"/>
-      <c r="AD101" s="28"/>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37" t="s">
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12"/>
+    </row>
+    <row r="102" spans="1:30">
+      <c r="A102" s="38"/>
+      <c r="B102" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="26" t="s">
+      <c r="C102" s="38"/>
+      <c r="D102" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E102" s="26" t="s">
+      <c r="E102" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F102" s="26" t="s">
+      <c r="F102" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I102" s="26" t="s">
+      <c r="I102" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J102" s="26" t="s">
+      <c r="J102" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K102" s="26" t="s">
+      <c r="K102" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="L102" s="26" t="s">
+      <c r="L102" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M102" s="26" t="s">
+      <c r="M102" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N102" s="29"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="28"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37" t="s">
+      <c r="N102" s="13"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+    </row>
+    <row r="103" spans="1:30">
+      <c r="A103" s="38"/>
+      <c r="B103" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="26" t="s">
+      <c r="C103" s="38"/>
+      <c r="D103" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I103" s="26" t="s">
+      <c r="I103" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J103" s="26" t="s">
+      <c r="J103" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K103" s="26" t="s">
+      <c r="K103" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L103" s="26" t="s">
+      <c r="L103" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="M103" s="26" t="s">
+      <c r="M103" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="N103" s="26" t="s">
+      <c r="N103" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="O103" s="26" t="s">
+      <c r="O103" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="P103" s="26" t="s">
+      <c r="P103" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="Q103" s="26" t="s">
+      <c r="Q103" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
-    </row>
-    <row r="104" spans="1:30" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
+      <c r="X103" s="13"/>
+      <c r="Y103" s="13"/>
+      <c r="Z103" s="13"/>
+      <c r="AA103" s="13"/>
+      <c r="AB103" s="13"/>
+      <c r="AC103" s="13"/>
+      <c r="AD103" s="13"/>
+    </row>
+    <row r="104" spans="1:30" ht="37.799999999999997">
       <c r="A104" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="25" t="s">
+      <c r="C104" s="38"/>
+      <c r="D104" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E104" s="25" t="s">
+      <c r="E104" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G104" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I104" s="25" t="s">
+      <c r="I104" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J104" s="29" t="s">
+      <c r="J104" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="K104" s="25" t="s">
+      <c r="K104" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L104" s="25" t="s">
+      <c r="L104" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="M104" s="25" t="s">
+      <c r="M104" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N104" s="26" t="s">
+      <c r="N104" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="O104" s="25" t="s">
+      <c r="O104" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="P104" s="25" t="s">
+      <c r="P104" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Q104" s="25" t="s">
+      <c r="Q104" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="R104" s="25" t="s">
+      <c r="R104" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="S104" s="25" t="s">
+      <c r="S104" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="T104" s="26" t="s">
+      <c r="T104" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="U104" s="25" t="s">
+      <c r="U104" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="V104" s="25" t="s">
+      <c r="V104" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="W104" s="25" t="s">
+      <c r="W104" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="X104" s="25" t="s">
+      <c r="X104" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="Y104" s="25" t="s">
+      <c r="Y104" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="Z104" s="26" t="s">
+      <c r="Z104" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="AA104" s="26" t="s">
+      <c r="AA104" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="AB104" s="26" t="s">
+      <c r="AB104" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="AC104" s="31" t="s">
+      <c r="AC104" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="31" t="s">
+      <c r="AD104" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A105" s="37" t="s">
+    <row r="105" spans="1:30">
+      <c r="A105" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="25" t="s">
+      <c r="C105" s="38"/>
+      <c r="D105" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="28"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="29"/>
-      <c r="AA105" s="29"/>
-      <c r="AB105" s="29"/>
-      <c r="AC105" s="29"/>
-      <c r="AD105" s="29"/>
-    </row>
-    <row r="106" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37" t="s">
+      <c r="E105" s="12"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
+      <c r="X105" s="13"/>
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="13"/>
+      <c r="AA105" s="13"/>
+      <c r="AB105" s="13"/>
+      <c r="AC105" s="13"/>
+      <c r="AD105" s="13"/>
+    </row>
+    <row r="106" spans="1:30" ht="25.2">
+      <c r="A106" s="38"/>
+      <c r="B106" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="25" t="s">
+      <c r="C106" s="38"/>
+      <c r="D106" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E106" s="28"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="29"/>
-      <c r="AD106" s="29"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37" t="s">
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="13"/>
+      <c r="X106" s="13"/>
+      <c r="Y106" s="13"/>
+      <c r="Z106" s="13"/>
+      <c r="AA106" s="13"/>
+      <c r="AB106" s="13"/>
+      <c r="AC106" s="13"/>
+      <c r="AD106" s="13"/>
+    </row>
+    <row r="107" spans="1:30">
+      <c r="A107" s="38"/>
+      <c r="B107" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="25" t="s">
+      <c r="C107" s="38"/>
+      <c r="D107" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E107" s="25" t="s">
+      <c r="E107" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
-    </row>
-    <row r="108" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="13"/>
+      <c r="AA107" s="13"/>
+      <c r="AB107" s="13"/>
+      <c r="AC107" s="13"/>
+      <c r="AD107" s="13"/>
+    </row>
+    <row r="108" spans="1:30" ht="25.2">
+      <c r="A108" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="37" t="s">
+      <c r="B108" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="25" t="s">
+      <c r="C108" s="38"/>
+      <c r="D108" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E108" s="25" t="s">
+      <c r="E108" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F108" s="25" t="s">
+      <c r="F108" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G108" s="25" t="s">
+      <c r="G108" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H108" s="25" t="s">
+      <c r="H108" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="29"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="29"/>
-    </row>
-    <row r="109" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37" t="s">
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
+      <c r="X108" s="13"/>
+      <c r="Y108" s="13"/>
+      <c r="Z108" s="13"/>
+      <c r="AA108" s="13"/>
+      <c r="AB108" s="13"/>
+      <c r="AC108" s="13"/>
+      <c r="AD108" s="13"/>
+    </row>
+    <row r="109" spans="1:30" ht="25.2">
+      <c r="A109" s="38"/>
+      <c r="B109" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="25" t="s">
+      <c r="C109" s="38"/>
+      <c r="D109" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E109" s="25" t="s">
+      <c r="E109" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="29"/>
-      <c r="AD109" s="29"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="13"/>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="13"/>
+      <c r="Z109" s="13"/>
+      <c r="AA109" s="13"/>
+      <c r="AB109" s="13"/>
+      <c r="AC109" s="13"/>
+      <c r="AD109" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B109:C109"/>
@@ -3626,14 +4088,9 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:C105"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:K1"/>
@@ -3643,7 +4100,755 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F947DFF-7543-48B4-AE92-B7C48C715F92}">
+  <dimension ref="A1:AL73"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL25" sqref="AL25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="I10" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="I11" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="I15" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="9:38">
+      <c r="I17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="9:38">
+      <c r="I18" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="9:38">
+      <c r="N19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="9:38">
+      <c r="N20" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="9:38">
+      <c r="I21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="9:38">
+      <c r="I22" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="9:38">
+      <c r="I23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="9:38">
+      <c r="I24" t="s">
+        <v>301</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="9:38">
+      <c r="I25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="9:38">
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="9:38">
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="9:38">
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="9:38">
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="9:38">
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="9:38">
+      <c r="N31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="9:38">
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="14:28">
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="14:28">
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="14:28">
+      <c r="AB35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="14:28">
+      <c r="AB36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="14:28">
+      <c r="N37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="14:28">
+      <c r="N38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="14:28">
+      <c r="N39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="14:28">
+      <c r="AB40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="14:28">
+      <c r="AB41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="14:28">
+      <c r="N42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="14:28">
+      <c r="N44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="14:28">
+      <c r="N45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="14:28">
+      <c r="N46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="14:28">
+      <c r="N47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="14:28">
+      <c r="N48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14">
+      <c r="N57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14">
+      <c r="N61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14">
+      <c r="N62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14">
+      <c r="N63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14">
+      <c r="N64" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14">
+      <c r="N68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14">
+      <c r="N69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14">
+      <c r="N70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14">
+      <c r="N71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14">
+      <c r="N72" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14">
+      <c r="N73" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8CCA-1CFB-40D6-8D05-6ABC06F21AA8}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_Dict.xlsx
+++ b/Data_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexaware Techenical\Asset Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FB429-8967-4B30-AB2E-2D7EFDF57CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983595C-3A19-404F-A64D-7C952EFBD38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
@@ -1319,6 +1319,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,13 +1374,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -2601,68 +2601,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="20.399999999999999" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="35" t="s">
         <v>157</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -2670,19 +2670,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
@@ -3360,13 +3360,13 @@
       <c r="C64" s="16"/>
     </row>
     <row r="97" spans="1:30" ht="37.799999999999997">
-      <c r="A97" s="38" t="s">
+      <c r="A97" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="38"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="9" t="s">
         <v>87</v>
       </c>
@@ -3422,11 +3422,11 @@
       <c r="AD97" s="12"/>
     </row>
     <row r="98" spans="1:30" ht="50.4">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38" t="s">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="9" t="s">
         <v>97</v>
       </c>
@@ -3488,13 +3488,13 @@
       <c r="AD98" s="12"/>
     </row>
     <row r="99" spans="1:30" ht="25.2">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="38"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="9" t="s">
         <v>97</v>
       </c>
@@ -3558,11 +3558,11 @@
       <c r="AD99" s="12"/>
     </row>
     <row r="100" spans="1:30" ht="25.2">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38" t="s">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="38"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="9" t="s">
         <v>97</v>
       </c>
@@ -3618,11 +3618,11 @@
       <c r="AD100" s="12"/>
     </row>
     <row r="101" spans="1:30" ht="25.2">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38" t="s">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="38"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="9" t="s">
         <v>97</v>
       </c>
@@ -3670,11 +3670,11 @@
       <c r="AD101" s="12"/>
     </row>
     <row r="102" spans="1:30">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="38"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="10" t="s">
         <v>165</v>
       </c>
@@ -3724,11 +3724,11 @@
       <c r="AD102" s="12"/>
     </row>
     <row r="103" spans="1:30">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38" t="s">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="10" t="s">
         <v>174</v>
       </c>
@@ -3789,10 +3789,10 @@
       <c r="A104" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="38"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="9" t="s">
         <v>97</v>
       </c>
@@ -3876,13 +3876,13 @@
       </c>
     </row>
     <row r="105" spans="1:30">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="38"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="9" t="s">
         <v>131</v>
       </c>
@@ -3914,11 +3914,11 @@
       <c r="AD105" s="13"/>
     </row>
     <row r="106" spans="1:30" ht="25.2">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38" t="s">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="38"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="9" t="s">
         <v>132</v>
       </c>
@@ -3950,11 +3950,11 @@
       <c r="AD106" s="13"/>
     </row>
     <row r="107" spans="1:30">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38" t="s">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C107" s="38"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="9" t="s">
         <v>133</v>
       </c>
@@ -3988,13 +3988,13 @@
       <c r="AD107" s="13"/>
     </row>
     <row r="108" spans="1:30" ht="25.2">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="38"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="9" t="s">
         <v>147</v>
       </c>
@@ -4034,11 +4034,11 @@
       <c r="AD108" s="13"/>
     </row>
     <row r="109" spans="1:30" ht="25.2">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38" t="s">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="38"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="9" t="s">
         <v>152</v>
       </c>
@@ -4073,6 +4073,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="F2:F3"/>
@@ -4089,24 +4107,6 @@
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4116,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F947DFF-7543-48B4-AE92-B7C48C715F92}">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="AE4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AL25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4638,7 +4638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8CCA-1CFB-40D6-8D05-6ABC06F21AA8}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>

--- a/Data_Dict.xlsx
+++ b/Data_Dict.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hexaware Techenical\Asset Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983595C-3A19-404F-A64D-7C952EFBD38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC856D21-DB69-4522-A32C-339FBBBA5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{665389C5-53B8-444B-8B97-7E2D59416665}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="195">
   <si>
     <t>Column Name</t>
   </si>
@@ -622,460 +621,13 @@
   </si>
   <si>
     <t>assets</t>
-  </si>
-  <si>
-    <t>==== Digital Asset Management System ====</t>
-  </si>
-  <si>
-    <t>1. Login</t>
-  </si>
-  <si>
-    <t>2. Exit</t>
-  </si>
-  <si>
-    <t>==== Admin Menu ====</t>
-  </si>
-  <si>
-    <t>1. Asset Management</t>
-  </si>
-  <si>
-    <t>2. Employee Management</t>
-  </si>
-  <si>
-    <t>3. Reports</t>
-  </si>
-  <si>
-    <t>4. Logout</t>
-  </si>
-  <si>
-    <t>==== Asset Management ====</t>
-  </si>
-  <si>
-    <t>1. Add Asset</t>
-  </si>
-  <si>
-    <t>2. Update Asset</t>
-  </si>
-  <si>
-    <t>3. Delete Asset</t>
-  </si>
-  <si>
-    <t>4. View All Assets</t>
-  </si>
-  <si>
-    <t>5. Allocate Asset</t>
-  </si>
-  <si>
-    <t>6. Deallocate Asset</t>
-  </si>
-  <si>
-    <t>7. Perform Maintenance</t>
-  </si>
-  <si>
-    <t>8. Back to Admin Menu</t>
-  </si>
-  <si>
-    <t>==== Add New Asset ====</t>
-  </si>
-  <si>
-    <t>Enter owner ID (leave empty if none):</t>
-  </si>
-  <si>
-    <t>Enter asset name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter asset type (e.g., laptop, vehicle, equipment): </t>
-  </si>
-  <si>
-    <t>Enter serial number:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter purchase date (YYYY-MM-DD): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter current location: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter status (in_use, decommissioned, under_maintenance): </t>
-  </si>
-  <si>
-    <t>==== Update Asset ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID to update: 20</t>
-  </si>
-  <si>
-    <t>Current Asset Details:</t>
-  </si>
-  <si>
-    <t>Name: printer</t>
-  </si>
-  <si>
-    <t>Type: equipment</t>
-  </si>
-  <si>
-    <t>Serial Number: DFS123dsf</t>
-  </si>
-  <si>
-    <t>Purchase Date: 2023-05-03</t>
-  </si>
-  <si>
-    <t>Location: Avinashi</t>
-  </si>
-  <si>
-    <t>Status: in_use</t>
-  </si>
-  <si>
-    <t>Owner ID: None</t>
-  </si>
-  <si>
-    <t>Enter new details (leave blank to keep current value):</t>
-  </si>
-  <si>
-    <t>Name [printer]: printer-epson</t>
-  </si>
-  <si>
-    <t>Type [equipment]:</t>
-  </si>
-  <si>
-    <t>Serial Number [DFS123dsf]:</t>
-  </si>
-  <si>
-    <t>Purchase Date [2023-05-03]:</t>
-  </si>
-  <si>
-    <t>Location [Avinashi]:</t>
-  </si>
-  <si>
-    <t>Status [in_use]:</t>
-  </si>
-  <si>
-    <t>Owner ID [None]:</t>
-  </si>
-  <si>
-    <t>Asset updated successfully!</t>
-  </si>
-  <si>
-    <t>==== Delete Asset ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID to delete: 6</t>
-  </si>
-  <si>
-    <t>Asset deleted successfully!</t>
-  </si>
-  <si>
-    <t>==== All Assets ====</t>
-  </si>
-  <si>
-    <t>ID         Name                 Type            Serial          Purchase Date   Location        Status               Owner ID</t>
-  </si>
-  <si>
-    <t>------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>5          MacBook Pro 16"      Laptop          MPB20230001     2023-01-15      Office          in_use               7</t>
-  </si>
-  <si>
-    <t>7          Dell XPS 15          Laptop          DXP20220001     2022-11-10      Warehouse       decommissioned       None</t>
-  </si>
-  <si>
-    <t>11         Updated Laptop       laptop          TEST123         2023-01-01      Warehouse       in_use               None</t>
-  </si>
-  <si>
-    <t>18         macbook pro          Laptop          daw64ads        2025-06-24      chennai         in_use               7</t>
-  </si>
-  <si>
-    <t>20         printer-epson        equipment       DFS123dsf       2023-05-03      Avinashi        in_use               None</t>
-  </si>
-  <si>
-    <t>==== Allocate Asset ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID to allocate: 18</t>
-  </si>
-  <si>
-    <t>Enter employee ID to allocate to: 9</t>
-  </si>
-  <si>
-    <t>Enter allocation date (YYYY-MM-DD): 2025-09-04</t>
-  </si>
-  <si>
-    <t>Asset allocated successfully!</t>
-  </si>
-  <si>
-    <t>==== Deallocate Asset ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID to deallocate: 18</t>
-  </si>
-  <si>
-    <t>Enter employee ID to deallocate from: 9</t>
-  </si>
-  <si>
-    <t>Enter return date (YYYY-MM-DD): 2025-09-06</t>
-  </si>
-  <si>
-    <t>Asset deallocated successfully!</t>
-  </si>
-  <si>
-    <t>==== Perform Maintenance ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID for maintenance: 20</t>
-  </si>
-  <si>
-    <t>Enter maintenance date (YYYY-MM-DD): 2025-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter maintenance description: no ink          </t>
-  </si>
-  <si>
-    <t>Enter maintenance cost: 2000</t>
-  </si>
-  <si>
-    <t>Maintenance recorded successfully!</t>
-  </si>
-  <si>
-    <t>==== Employee Management ====</t>
-  </si>
-  <si>
-    <t>1. Add Employee</t>
-  </si>
-  <si>
-    <t>2. Update Employee</t>
-  </si>
-  <si>
-    <t>3. View All Employees</t>
-  </si>
-  <si>
-    <t>4. Back to Admin Menu</t>
-  </si>
-  <si>
-    <t>==== Add New Employee ====</t>
-  </si>
-  <si>
-    <t>Enter employee name: Sam</t>
-  </si>
-  <si>
-    <t>Enter department: Frontend-Dev</t>
-  </si>
-  <si>
-    <t>Enter email: sam@company.com</t>
-  </si>
-  <si>
-    <t>Enter password: sam123</t>
-  </si>
-  <si>
-    <t>Is this an admin account? (y/n): n</t>
-  </si>
-  <si>
-    <t>Employee added successfully!</t>
-  </si>
-  <si>
-    <t>==== Update Employee ====</t>
-  </si>
-  <si>
-    <t>Enter employee ID to update: 10</t>
-  </si>
-  <si>
-    <t>Current Employee Details:</t>
-  </si>
-  <si>
-    <t>Name: Sam</t>
-  </si>
-  <si>
-    <t>Department: Frontend-Dev</t>
-  </si>
-  <si>
-    <t>Email: sam@company.com</t>
-  </si>
-  <si>
-    <t>Admin: No</t>
-  </si>
-  <si>
-    <t>Name [Sam]:</t>
-  </si>
-  <si>
-    <t>Department [Frontend-Dev]:</t>
-  </si>
-  <si>
-    <t>Email [sam@company.com]: sam123@company.com</t>
-  </si>
-  <si>
-    <t>New password (leave blank to keep current): sam12345</t>
-  </si>
-  <si>
-    <t>Employee updated successfully!</t>
-  </si>
-  <si>
-    <t>==== All Employees ====</t>
-  </si>
-  <si>
-    <t>ID         Name                 Department           Email                     Admin</t>
-  </si>
-  <si>
-    <t>-------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>1          Admin                IT                   admin@company.com         Yes</t>
-  </si>
-  <si>
-    <t>7          John Doe             Sales                john.doe@company.com      No</t>
-  </si>
-  <si>
-    <t>8          Jane Smith           Marketing            jane.smith@company.com    No</t>
-  </si>
-  <si>
-    <t>9          Ram                  Marketing            ram@example.com           No</t>
-  </si>
-  <si>
-    <t>10         Sam                  Frontend-Dev         sam123@company.com        No</t>
-  </si>
-  <si>
-    <t>==== Reports ====</t>
-  </si>
-  <si>
-    <t>1. Asset Status Report</t>
-  </si>
-  <si>
-    <t>2. Maintenance History</t>
-  </si>
-  <si>
-    <t>3. Allocation History</t>
-  </si>
-  <si>
-    <t>==== Asset Status Report ====</t>
-  </si>
-  <si>
-    <t>ID         Name                 Type            Status               Owner                Department</t>
-  </si>
-  <si>
-    <t>---------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>5          MacBook Pro 16"      Laptop          in_use               John Doe             Sales</t>
-  </si>
-  <si>
-    <t>11         Updated Laptop       laptop          in_use               None                 None</t>
-  </si>
-  <si>
-    <t>18         macbook pro          Laptop          in_use               None                 None</t>
-  </si>
-  <si>
-    <t>7          Dell XPS 15          Laptop          decommissioned       None                 None</t>
-  </si>
-  <si>
-    <t>20         printer-epson        equipment       under_maintenance    None                 None</t>
-  </si>
-  <si>
-    <t>==== Maintenance History ====</t>
-  </si>
-  <si>
-    <t>ID         Asset                Date            Description                    Cost</t>
-  </si>
-  <si>
-    <t>2          printer-epson        2025-06-06      no ink                         2000.00</t>
-  </si>
-  <si>
-    <t>1          MacBook Pro 16"      2023-05-15      Battery replacement            89.99</t>
-  </si>
-  <si>
-    <t>==== Allocation History ====</t>
-  </si>
-  <si>
-    <t>ID         Asset                Employee             Allocation Date Return Date</t>
-  </si>
-  <si>
-    <t>--------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>3          macbook pro          Ram                  2025-09-04      2025-09-06</t>
-  </si>
-  <si>
-    <t>1          MacBook Pro 16"      John Doe             2023-04-01      Active</t>
-  </si>
-  <si>
-    <t>==== User Menu ====</t>
-  </si>
-  <si>
-    <t>1. View My Assets</t>
-  </si>
-  <si>
-    <t>2. Request Asset</t>
-  </si>
-  <si>
-    <t>3. Return Asset</t>
-  </si>
-  <si>
-    <t>4. Request Maintenance</t>
-  </si>
-  <si>
-    <t>5. Update My Profile</t>
-  </si>
-  <si>
-    <t>6. Logout</t>
-  </si>
-  <si>
-    <t>==== My Assets ====</t>
-  </si>
-  <si>
-    <t>You don't have any allocated assets</t>
-  </si>
-  <si>
-    <t>==== Request Asset ====</t>
-  </si>
-  <si>
-    <t>18         macbook pro          Laptop          daw64ads        2025-06-24      chennai         in_use               None</t>
-  </si>
-  <si>
-    <t>20         printer-epson        equipment       DFS123dsf       2023-05-03      Avinashi        under_maintenance    None</t>
-  </si>
-  <si>
-    <t>Enter asset ID to request: 5</t>
-  </si>
-  <si>
-    <t>Enter start date (YYYY-MM-DD): 2025-09-08</t>
-  </si>
-  <si>
-    <t>Enter end date (YYYY-MM-DD): 2025-09-10</t>
-  </si>
-  <si>
-    <t>Error: name 'datetime' is not defined</t>
-  </si>
-  <si>
-    <t>==== Request Maintenance ====</t>
-  </si>
-  <si>
-    <t>Enter asset ID for maintenance: 5</t>
-  </si>
-  <si>
-    <t>Enter maintenance description: battery</t>
-  </si>
-  <si>
-    <t>==== Update My Profile ====</t>
-  </si>
-  <si>
-    <t>Current Profile Details:</t>
-  </si>
-  <si>
-    <t>Email: sam123@company.com</t>
-  </si>
-  <si>
-    <t>Email [sam123@company.com]: sam@company.com</t>
-  </si>
-  <si>
-    <t>New password (leave blank to keep current): sam123</t>
-  </si>
-  <si>
-    <t>Profile updated successfully!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,15 +878,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,6 +909,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,6 +1167,62 @@
         <a:xfrm>
           <a:off x="7926929" y="1593140"/>
           <a:ext cx="7781141" cy="4705000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180021</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3229B0-9282-DCB3-726A-8EC027B2FAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="13955"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18333550" cy="8840178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,7 +1602,7 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
@@ -2005,19 +1613,19 @@
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D1" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="19.8">
+    <row r="3" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="19"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +1653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +1673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2093,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +1715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2121,13 +1729,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2155,7 +1763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +1777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +1791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +1805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +1819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2225,7 +1833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2239,7 +1847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2253,12 +1861,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.399999999999999" thickBot="1">
+    <row r="23" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1">
+    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +1880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +1894,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2300,7 +1908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2314,7 +1922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +1936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2342,13 +1950,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.8">
+    <row r="31" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2376,7 +1984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -2390,7 +1998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8">
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2418,7 +2026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -2432,13 +2040,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.8">
+    <row r="39" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
@@ -2466,7 +2074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8">
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -2508,7 +2116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -2522,7 +2130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -2536,7 +2144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8">
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -2582,7 +2190,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="14" customWidth="1"/>
     <col min="2" max="2" width="33" style="14" customWidth="1"/>
@@ -2600,91 +2208,91 @@
     <col min="14" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="20.399999999999999" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="32" t="s">
         <v>157</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -2728,7 +2336,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="25.2">
+    <row r="5" spans="1:14" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -2768,7 +2376,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -2801,7 +2409,7 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -2834,7 +2442,7 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>121</v>
       </c>
@@ -2867,7 +2475,7 @@
       </c>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>91</v>
       </c>
@@ -2898,7 +2506,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +2537,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
@@ -2960,7 +2568,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>124</v>
       </c>
@@ -2991,7 +2599,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
@@ -3020,7 +2628,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>126</v>
       </c>
@@ -3047,7 +2655,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
@@ -3073,7 +2681,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
@@ -3099,7 +2707,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
         <v>128</v>
@@ -3122,7 +2730,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="15" t="s">
         <v>129</v>
@@ -3143,7 +2751,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="15" t="s">
         <v>130</v>
@@ -3164,7 +2772,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="9" t="s">
@@ -3183,7 +2791,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3200,7 +2808,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3217,7 +2825,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3234,7 +2842,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3251,7 +2859,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3268,7 +2876,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3285,7 +2893,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3302,7 +2910,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3319,7 +2927,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3336,7 +2944,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3353,13 +2961,13 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="16"/>
     </row>
-    <row r="97" spans="1:30" ht="37.799999999999997">
+    <row r="97" spans="1:30" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>193</v>
       </c>
@@ -3421,7 +3029,7 @@
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
     </row>
-    <row r="98" spans="1:30" ht="50.4">
+    <row r="98" spans="1:30" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>92</v>
@@ -3487,7 +3095,7 @@
       <c r="AC98" s="12"/>
       <c r="AD98" s="12"/>
     </row>
-    <row r="99" spans="1:30" ht="25.2">
+    <row r="99" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>182</v>
       </c>
@@ -3557,7 +3165,7 @@
       <c r="AC99" s="12"/>
       <c r="AD99" s="12"/>
     </row>
-    <row r="100" spans="1:30" ht="25.2">
+    <row r="100" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>85</v>
@@ -3617,7 +3225,7 @@
       <c r="AC100" s="12"/>
       <c r="AD100" s="12"/>
     </row>
-    <row r="101" spans="1:30" ht="25.2">
+    <row r="101" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>86</v>
@@ -3669,7 +3277,7 @@
       <c r="AC101" s="12"/>
       <c r="AD101" s="12"/>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="B102" s="20" t="s">
         <v>164</v>
@@ -3723,7 +3331,7 @@
       <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>173</v>
@@ -3785,7 +3393,7 @@
       <c r="AC103" s="13"/>
       <c r="AD103" s="13"/>
     </row>
-    <row r="104" spans="1:30" ht="37.799999999999997">
+    <row r="104" spans="1:30" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>190</v>
       </c>
@@ -3875,7 +3483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>191</v>
       </c>
@@ -3913,7 +3521,7 @@
       <c r="AC105" s="13"/>
       <c r="AD105" s="13"/>
     </row>
-    <row r="106" spans="1:30" ht="25.2">
+    <row r="106" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>94</v>
@@ -3949,7 +3557,7 @@
       <c r="AC106" s="13"/>
       <c r="AD106" s="13"/>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="B107" s="20" t="s">
         <v>95</v>
@@ -3987,7 +3595,7 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
     </row>
-    <row r="108" spans="1:30" ht="25.2">
+    <row r="108" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
         <v>192</v>
       </c>
@@ -4033,7 +3641,7 @@
       <c r="AC108" s="13"/>
       <c r="AD108" s="13"/>
     </row>
-    <row r="109" spans="1:30" ht="25.2">
+    <row r="109" spans="1:30" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>157</v>
@@ -4073,27 +3681,10 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A105:A107"/>
     <mergeCell ref="B105:C105"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B106:C106"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B109:C109"/>
@@ -4107,748 +3698,39 @@
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F947DFF-7543-48B4-AE92-B7C48C715F92}">
-  <dimension ref="A1:AL73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A33F0E-553F-4F40-9F8B-C2A21535B386}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="E5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="E6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" t="s">
-        <v>206</v>
-      </c>
-      <c r="N6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="I7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="I8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="I9" t="s">
-        <v>209</v>
-      </c>
-      <c r="N9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="I10" t="s">
-        <v>210</v>
-      </c>
-      <c r="N10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="I11" t="s">
-        <v>211</v>
-      </c>
-      <c r="N11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="I14" t="s">
-        <v>266</v>
-      </c>
-      <c r="N14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="I15" t="s">
-        <v>267</v>
-      </c>
-      <c r="N15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38">
-      <c r="I16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="9:38">
-      <c r="I17" t="s">
-        <v>269</v>
-      </c>
-      <c r="N17" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="9:38">
-      <c r="I18" t="s">
-        <v>270</v>
-      </c>
-      <c r="N18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="9:38">
-      <c r="N19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="9:38">
-      <c r="N20" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="9:38">
-      <c r="I21" t="s">
-        <v>298</v>
-      </c>
-      <c r="N21" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="9:38">
-      <c r="I22" t="s">
-        <v>299</v>
-      </c>
-      <c r="N22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="9:38">
-      <c r="I23" t="s">
-        <v>300</v>
-      </c>
-      <c r="N23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="9:38">
-      <c r="I24" t="s">
-        <v>301</v>
-      </c>
-      <c r="N24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="9:38">
-      <c r="I25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="9:38">
-      <c r="N26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="9:38">
-      <c r="N27" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="9:38">
-      <c r="N28" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="9:38">
-      <c r="N29" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="9:38">
-      <c r="N30" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="9:38">
-      <c r="N31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="9:38">
-      <c r="N32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="14:28">
-      <c r="N33" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="14:28">
-      <c r="N34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="14:28">
-      <c r="AB35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="14:28">
-      <c r="AB36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="14:28">
-      <c r="N37" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="14:28">
-      <c r="N38" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="14:28">
-      <c r="N39" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="14:28">
-      <c r="AB40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="14:28">
-      <c r="AB41" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="14:28">
-      <c r="N42" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="14:28">
-      <c r="N44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="14:28">
-      <c r="N45" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="14:28">
-      <c r="N46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="14:28">
-      <c r="N47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="14:28">
-      <c r="N48" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8CCA-1CFB-40D6-8D05-6ABC06F21AA8}">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" t="s">
-        <v>324</v>
-      </c>
-      <c r="H10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="H12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="H14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="H15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="H16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="H33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="H37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="8:8">
-      <c r="H41" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="8:8">
-      <c r="H43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="8:8">
-      <c r="H44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="8:8">
-      <c r="H46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="8:8">
-      <c r="H48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8">
-      <c r="H53" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>